--- a/samples/google_video_ads_demo.xlsx
+++ b/samples/google_video_ads_demo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="153">
   <si>
     <t>Campaign</t>
   </si>
@@ -58,76 +58,76 @@
     <t>Display URL</t>
   </si>
   <si>
-    <t>Video Campaign 1</t>
-  </si>
-  <si>
-    <t>Video Campaign 2</t>
-  </si>
-  <si>
-    <t>Video Campaign 3</t>
-  </si>
-  <si>
-    <t>Video Campaign 4</t>
-  </si>
-  <si>
-    <t>Video Ad Group 1</t>
-  </si>
-  <si>
-    <t>Video Ad Group 2</t>
-  </si>
-  <si>
-    <t>Video Ad Group 3</t>
-  </si>
-  <si>
-    <t>Video Ad Group 4</t>
-  </si>
-  <si>
-    <t>Video Ad Group 5</t>
-  </si>
-  <si>
-    <t>Video Ad Group 6</t>
-  </si>
-  <si>
-    <t>Video Ad Group 7</t>
-  </si>
-  <si>
-    <t>Video Ad Group 8</t>
-  </si>
-  <si>
-    <t>Video Ad Group 9</t>
-  </si>
-  <si>
-    <t>Video Ad Group 10</t>
-  </si>
-  <si>
-    <t>Video Ad Group 11</t>
-  </si>
-  <si>
-    <t>Video Ad Group 12</t>
-  </si>
-  <si>
-    <t>Video Ad Group 13</t>
-  </si>
-  <si>
-    <t>Video Ad Group 14</t>
-  </si>
-  <si>
-    <t>Video Ad Group 15</t>
-  </si>
-  <si>
-    <t>Video Ad Group 16</t>
-  </si>
-  <si>
-    <t>Video Ad Group 17</t>
-  </si>
-  <si>
-    <t>Video Ad Group 18</t>
-  </si>
-  <si>
-    <t>Video Ad Group 19</t>
-  </si>
-  <si>
-    <t>Video Ad Group 20</t>
+    <t>Video - TrueView</t>
+  </si>
+  <si>
+    <t>Video - Bumper</t>
+  </si>
+  <si>
+    <t>Video - Discovery</t>
+  </si>
+  <si>
+    <t>Video - In-Stream</t>
+  </si>
+  <si>
+    <t>CloudStore Video - Ad Group 1</t>
+  </si>
+  <si>
+    <t>TaskFlow Video - Ad Group 2</t>
+  </si>
+  <si>
+    <t>EmailPro Video - Ad Group 3</t>
+  </si>
+  <si>
+    <t>SalesCentral Video - Ad Group 4</t>
+  </si>
+  <si>
+    <t>DataViz Video - Ad Group 5</t>
+  </si>
+  <si>
+    <t>MeetingHub Video - Ad Group 6</t>
+  </si>
+  <si>
+    <t>ContentAI Video - Ad Group 7</t>
+  </si>
+  <si>
+    <t>SocialBoost Video - Ad Group 8</t>
+  </si>
+  <si>
+    <t>CloudStore Video - Ad Group 9</t>
+  </si>
+  <si>
+    <t>TaskFlow Video - Ad Group 10</t>
+  </si>
+  <si>
+    <t>EmailPro Video - Ad Group 11</t>
+  </si>
+  <si>
+    <t>SalesCentral Video - Ad Group 12</t>
+  </si>
+  <si>
+    <t>DataViz Video - Ad Group 13</t>
+  </si>
+  <si>
+    <t>MeetingHub Video - Ad Group 14</t>
+  </si>
+  <si>
+    <t>ContentAI Video - Ad Group 15</t>
+  </si>
+  <si>
+    <t>SocialBoost Video - Ad Group 16</t>
+  </si>
+  <si>
+    <t>Analytics Platform Video</t>
+  </si>
+  <si>
+    <t>Marketing Automation Video</t>
+  </si>
+  <si>
+    <t>Project Management Video</t>
+  </si>
+  <si>
+    <t>Cloud Computing Video</t>
   </si>
   <si>
     <t>Video Ad 1</t>
@@ -196,46 +196,145 @@
     <t>https://www.youtube.com/watch?v=dQw4w9WgXcQ</t>
   </si>
   <si>
-    <t>https://vimeo.com/12345678</t>
+    <t>https://www.youtube.com/watch?v=9bZkp7q19f0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jNQXAC9IVRw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M7lc1UVf-VE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2Vv-BfVoq4g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kJQP7kiw5Fk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OPf0YbXqDm0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQHsXMglC9A</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/123456789</t>
   </si>
   <si>
     <t>https://youtu.be/9bZkp7q19f0</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=jNQXAC9IVRw</t>
-  </si>
-  <si>
     <t>https://youtube.com/watch?v=M7lc1UVf-VE</t>
   </si>
   <si>
     <t>In-stream</t>
   </si>
   <si>
-    <t>Transform Your Business</t>
-  </si>
-  <si>
-    <t>AI-Powered Solutions</t>
-  </si>
-  <si>
-    <t>Marketing Automation</t>
-  </si>
-  <si>
-    <t>This is a very long headline that exceeds thirty characters</t>
-  </si>
-  <si>
-    <t>Cloud Computing Solutions</t>
-  </si>
-  <si>
-    <t>Start Your Free Trial</t>
-  </si>
-  <si>
-    <t>See how our solution helps companies grow faster with powerful automation tools.</t>
-  </si>
-  <si>
-    <t>Discover the future of business automation with our cutting-edge AI platform.</t>
-  </si>
-  <si>
-    <t>Streamline your marketing with automated campaigns that drive real results.</t>
+    <t>Bumper</t>
+  </si>
+  <si>
+    <t>Video discovery</t>
+  </si>
+  <si>
+    <t>Secure Cloud Storage</t>
+  </si>
+  <si>
+    <t>Project Management Tool</t>
+  </si>
+  <si>
+    <t>Email Marketing Platform</t>
+  </si>
+  <si>
+    <t>AI-Powered CRM</t>
+  </si>
+  <si>
+    <t>Business Analytics</t>
+  </si>
+  <si>
+    <t>Video Conferencing</t>
+  </si>
+  <si>
+    <t>AI Writing Assistant</t>
+  </si>
+  <si>
+    <t>Social Media Manager</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Marketing Automation Platform</t>
+  </si>
+  <si>
+    <t>This is an extremely long headline that definitely exceeds the thirty character limit for YouTube ads</t>
+  </si>
+  <si>
+    <t>Cloud Infrastructure</t>
+  </si>
+  <si>
+    <t>Free 30-Day Trial</t>
+  </si>
+  <si>
+    <t>Start Free Today</t>
+  </si>
+  <si>
+    <t>Grow Your Business</t>
+  </si>
+  <si>
+    <t>Free Demo Available</t>
+  </si>
+  <si>
+    <t>Try It Free</t>
+  </si>
+  <si>
+    <t>Host HD Meetings</t>
+  </si>
+  <si>
+    <t>Write 10x Faster</t>
+  </si>
+  <si>
+    <t>Schedule Posts</t>
+  </si>
+  <si>
+    <t>Real-Time Analytics</t>
+  </si>
+  <si>
+    <t>Grow Your Revenue</t>
+  </si>
+  <si>
+    <t>Start Free Trial</t>
+  </si>
+  <si>
+    <t>Scale Instantly</t>
+  </si>
+  <si>
+    <t>Store and share files securely in the cloud. 99.9% uptime guarantee.</t>
+  </si>
+  <si>
+    <t>Manage projects efficiently with real-time collaboration and Gantt charts.</t>
+  </si>
+  <si>
+    <t>Create stunning email campaigns in minutes. Drag-and-drop builder included.</t>
+  </si>
+  <si>
+    <t>Transform your sales process with AI-powered CRM. Lead scoring and pipeline management.</t>
+  </si>
+  <si>
+    <t>Turn data into insights with beautiful dashboards and real-time analytics.</t>
+  </si>
+  <si>
+    <t>Host HD video meetings with up to 500 participants. Screen sharing and recording.</t>
+  </si>
+  <si>
+    <t>Generate high-quality content 10x faster with AI. Blog posts, ads, and emails.</t>
+  </si>
+  <si>
+    <t>Schedule posts across all platforms from one dashboard. Instagram, Facebook, Twitter.</t>
+  </si>
+  <si>
+    <t>Discover how leading companies use our platform for data-driven decisions.</t>
+  </si>
+  <si>
+    <t>Automate your marketing campaigns and grow revenue by 40% with our platform.</t>
   </si>
   <si>
     <t>Professional video editing made simple with our intuitive drag-and-drop interface.</t>
@@ -244,31 +343,136 @@
     <t>Scale your infrastructure instantly with our flexible cloud platform.</t>
   </si>
   <si>
-    <t>No credit card required. Cancel anytime. 30-day money back guarantee.</t>
+    <t>No credit card required. Cancel anytime. Trusted by 100K+ businesses.</t>
+  </si>
+  <si>
+    <t>Time tracking, team chat, file sharing. Integrates with 500+ apps.</t>
+  </si>
+  <si>
+    <t>A/B testing, automation, analytics. 99% deliverability rate guaranteed.</t>
+  </si>
+  <si>
+    <t>Email integration, mobile app, custom reports. Used by 50K+ sales teams.</t>
+  </si>
+  <si>
+    <t>No SQL required. Connects to any data source. Custom visualizations.</t>
+  </si>
+  <si>
+    <t>Breakout rooms, live polls, chat. SOC 2 certified security.</t>
+  </si>
+  <si>
+    <t>50+ templates. SEO optimization. Plagiarism detection included.</t>
+  </si>
+  <si>
+    <t>Analytics, team collaboration, content calendar. Auto-posting included.</t>
+  </si>
+  <si>
+    <t>Custom dashboards, predictive analytics, automated reports. Free trial available.</t>
+  </si>
+  <si>
+    <t>Email marketing, lead scoring, CRM integration. Used by Fortune 500 companies.</t>
+  </si>
+  <si>
+    <t>4K export, transitions, effects, templates. No experience required.</t>
+  </si>
+  <si>
+    <t>99.99% uptime SLA. Global data centers. Pay only for what you use.</t>
+  </si>
+  <si>
+    <t>Try Free</t>
+  </si>
+  <si>
+    <t>Get Started</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>Watch Demo</t>
   </si>
   <si>
     <t>Learn More</t>
   </si>
   <si>
-    <t>Get Started</t>
-  </si>
-  <si>
-    <t>Click Here Now</t>
-  </si>
-  <si>
-    <t>Try Free</t>
-  </si>
-  <si>
-    <t>Sign Up</t>
+    <t>Start Free</t>
+  </si>
+  <si>
+    <t>Try Now</t>
+  </si>
+  <si>
+    <t>Click Here Right Now</t>
   </si>
   <si>
     <t>Join Now</t>
   </si>
   <si>
-    <t>https://example.com/video-landing</t>
-  </si>
-  <si>
-    <t>example.com</t>
+    <t>Try It Now</t>
+  </si>
+  <si>
+    <t>https://cloudstore.com/video-landing</t>
+  </si>
+  <si>
+    <t>https://taskflow.com/video-landing</t>
+  </si>
+  <si>
+    <t>https://emailpro.com/video-landing</t>
+  </si>
+  <si>
+    <t>https://salescentral.com/video-landing</t>
+  </si>
+  <si>
+    <t>https://dataviz.com/video-landing</t>
+  </si>
+  <si>
+    <t>https://meetinghub.com/video-landing</t>
+  </si>
+  <si>
+    <t>https://contentai.com/video-landing</t>
+  </si>
+  <si>
+    <t>https://socialboost.com/video-landing</t>
+  </si>
+  <si>
+    <t>https://dataviz.com/analytics</t>
+  </si>
+  <si>
+    <t>https://marketingpro.com/automation</t>
+  </si>
+  <si>
+    <t>https://videopro.com/editor</t>
+  </si>
+  <si>
+    <t>cloudstore.com</t>
+  </si>
+  <si>
+    <t>taskflow.com</t>
+  </si>
+  <si>
+    <t>emailpro.com</t>
+  </si>
+  <si>
+    <t>salescentral.com</t>
+  </si>
+  <si>
+    <t>dataviz.com</t>
+  </si>
+  <si>
+    <t>meetinghub.com</t>
+  </si>
+  <si>
+    <t>contentai.com</t>
+  </si>
+  <si>
+    <t>socialboost.com</t>
+  </si>
+  <si>
+    <t>marketingpro.com</t>
+  </si>
+  <si>
+    <t>videopro.com</t>
+  </si>
+  <si>
+    <t>cloudscale.com</t>
   </si>
 </sst>
 </file>
@@ -706,36 +910,36 @@
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -747,39 +951,39 @@
         <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -791,39 +995,39 @@
         <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -835,34 +1039,34 @@
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -879,34 +1083,34 @@
         <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -923,39 +1127,39 @@
         <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -967,39 +1171,39 @@
         <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1011,39 +1215,39 @@
         <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1058,31 +1262,31 @@
         <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1099,34 +1303,34 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1143,39 +1347,39 @@
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -1187,39 +1391,39 @@
         <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -1231,39 +1435,39 @@
         <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -1275,34 +1479,34 @@
         <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1319,34 +1523,34 @@
         <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="N16" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1363,34 +1567,34 @@
         <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1407,39 +1611,39 @@
         <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="N18" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -1451,39 +1655,39 @@
         <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -1495,34 +1699,34 @@
         <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="N20" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1539,31 +1743,31 @@
         <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="N21" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
